--- a/Documentation/Product Backlog Groep 4.xlsx
+++ b/Documentation/Product Backlog Groep 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\KrakenDocuments\ProjectB\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316D76A-000B-41D1-AC8E-FE475DF0096D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1183EF-CE52-48E5-9AE2-501D4C363E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4D416FE-52AB-4C86-A877-104C596E85DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D416FE-52AB-4C86-A877-104C596E85DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Onderdeel</t>
   </si>
@@ -81,6 +79,60 @@
   </si>
   <si>
     <t>Annuleringssysteem</t>
+  </si>
+  <si>
+    <t>AdminMenu</t>
+  </si>
+  <si>
+    <t>ClientMenu</t>
+  </si>
+  <si>
+    <t>MoSCoW</t>
+  </si>
+  <si>
+    <t>Must</t>
+  </si>
+  <si>
+    <t>Should</t>
+  </si>
+  <si>
+    <t>Could</t>
+  </si>
+  <si>
+    <t>User stories</t>
+  </si>
+  <si>
+    <t>Als klant, wil ik kunnen reserveren in de applicatie, zodat ik van tevoren een tijd kan kiezen die mij uitkomt.</t>
+  </si>
+  <si>
+    <t>Als eigenaar, wil ik kunnen aangeven wanneer ik wil, zodat kamers niet door meerdere klanten tegelijk kunnen worden geboekt.</t>
+  </si>
+  <si>
+    <t>Als eigenaar, wil ik kunnen zien hoeveel mensen er zijn geboekt, om te controleren dat de kamer niet overboekt wordt.</t>
+  </si>
+  <si>
+    <t>Als klant, wil ik meerdere escape rooms kunnen zien, zodat ik genoeg keuze heb.</t>
+  </si>
+  <si>
+    <t>Als klant, wil ik informatie over de escape rooms kunnen zien, om goed te kunnen bepalen welke voor mij geschikt is.</t>
+  </si>
+  <si>
+    <t>Als klant, wil ik kunnen zien wat de locatie van de escape room is, zodat ik ze daadwerkelijk kan vinden.</t>
+  </si>
+  <si>
+    <t>Als gebruiker, wil ik dat de contactgegevens te zien zijn, zodat klanten de eigenaar kan bereiken mochten zij hulp vereisen.</t>
+  </si>
+  <si>
+    <t>Als gebruiker, wil ik een hoofdmenu, zodat ik makkelijk kan navigeren.</t>
+  </si>
+  <si>
+    <t>Als klant, wil ik mijn reservering kunnen annuleren, zodat ik kosten kan verkomen als ik toch niet kan.</t>
+  </si>
+  <si>
+    <t>Als eigenaar, wil ik een admin menu waar alleen mensen met bevoegdheden in kunnen, zodat ik makkelijk dingen kan aanpassen.</t>
+  </si>
+  <si>
+    <t>Als klant, wil ik een client menu, zodat ik makkelijk kan kiezen wat ik wil doen.</t>
   </si>
 </sst>
 </file>
@@ -157,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,6 +218,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -480,97 +533,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2241D9-9AFB-4844-9D6A-711668E963F3}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="115.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="J3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="J4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="J5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
